--- a/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47392143-2ACF-4682-B975-2ED5F4739382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A112F0-CB84-4C8C-88AB-074054523312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5B4F2C7-377D-4E3E-910F-93DE9C176CC7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AEC6C71-D7E0-46E6-A904-AF471AA9A691}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="587">
   <si>
     <t>Población según las horas que duerme habitualmente al dia y los fines de semana en 2023 (Tasa respuesta: 97,07%)</t>
   </si>
@@ -86,1702 +86,1714 @@
     <t>2,13%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2196,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8110EDA5-CF6B-47E4-9D10-83DBC0200FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241BA52B-254B-41F5-B8B9-3F8969898B96}">
   <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2782,10 +2794,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2794,13 +2806,13 @@
         <v>24148</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -2809,13 +2821,13 @@
         <v>38375</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2842,13 @@
         <v>1543</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2845,13 +2857,13 @@
         <v>3870</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2860,13 +2872,13 @@
         <v>5413</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>792</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2896,13 +2908,13 @@
         <v>1293</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2911,13 +2923,13 @@
         <v>2085</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2959,13 @@
         <v>500</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2962,13 +2974,13 @@
         <v>500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2995,13 @@
         <v>260298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>538</v>
@@ -2998,13 +3010,13 @@
         <v>271403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>869</v>
@@ -3013,18 +3025,18 @@
         <v>531700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5">
         <v>15</v>
@@ -3042,37 +3054,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3102,13 +3114,13 @@
         <v>2061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3117,13 +3129,13 @@
         <v>2061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3153,13 +3165,13 @@
         <v>1961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3174,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3204,7 +3216,7 @@
         <v>686</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
@@ -3225,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,7 +3513,7 @@
         <v>147</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>24</v>
@@ -3513,10 +3525,10 @@
         <v>104</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -3525,13 +3537,13 @@
         <v>26984</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3558,13 @@
         <v>3720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3561,13 +3573,13 @@
         <v>4193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3576,13 +3588,13 @@
         <v>7913</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3615,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3612,13 +3624,13 @@
         <v>623</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3627,13 +3639,13 @@
         <v>623</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,37 +3666,37 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>423808</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" s="7">
         <v>613</v>
@@ -3714,13 +3726,13 @@
         <v>471304</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" s="7">
         <v>933</v>
@@ -3729,18 +3741,18 @@
         <v>895112</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5">
         <v>15</v>
@@ -3758,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3809,7 +3821,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3860,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3869,13 +3881,13 @@
         <v>975</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3884,13 +3896,13 @@
         <v>975</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3917,13 @@
         <v>1431</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3935,13 +3947,13 @@
         <v>1431</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3968,13 @@
         <v>3157</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -3971,13 +3983,13 @@
         <v>5082</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -3986,13 +3998,13 @@
         <v>8239</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4019,13 @@
         <v>30283</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H37" s="7">
         <v>38</v>
@@ -4022,13 +4034,13 @@
         <v>32955</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -4037,13 +4049,13 @@
         <v>63237</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4070,13 @@
         <v>128754</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H38" s="7">
         <v>176</v>
@@ -4073,13 +4085,13 @@
         <v>138629</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>308</v>
@@ -4088,13 +4100,13 @@
         <v>267384</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4121,13 @@
         <v>85797</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H39" s="7">
         <v>169</v>
@@ -4124,13 +4136,13 @@
         <v>107806</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M39" s="7">
         <v>276</v>
@@ -4139,13 +4151,13 @@
         <v>193603</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4172,13 @@
         <v>41500</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H40" s="7">
         <v>76</v>
@@ -4175,13 +4187,13 @@
         <v>45580</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M40" s="7">
         <v>125</v>
@@ -4190,13 +4202,13 @@
         <v>87080</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4223,13 @@
         <v>22404</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -4226,13 +4238,13 @@
         <v>23899</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -4241,13 +4253,13 @@
         <v>46304</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +4274,10 @@
         <v>4666</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>224</v>
@@ -4280,10 +4292,10 @@
         <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -4295,10 +4307,10 @@
         <v>227</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4325,13 @@
         <v>816</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="H43" s="7">
         <v>6</v>
@@ -4328,13 +4340,13 @@
         <v>3445</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -4343,13 +4355,13 @@
         <v>4261</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4376,13 @@
         <v>904</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4379,13 +4391,13 @@
         <v>745</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -4394,13 +4406,13 @@
         <v>1650</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4427,13 @@
         <v>319712</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H45" s="7">
         <v>527</v>
@@ -4430,13 +4442,13 @@
         <v>368830</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M45" s="7">
         <v>884</v>
@@ -4445,18 +4457,18 @@
         <v>688542</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B46" s="5">
         <v>15</v>
@@ -4474,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4489,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -4504,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4537,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -4540,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -4555,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -4585,13 +4597,13 @@
         <v>3787</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -4600,13 +4612,13 @@
         <v>3787</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4636,13 +4648,13 @@
         <v>429</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4651,13 +4663,13 @@
         <v>429</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4684,13 @@
         <v>10580</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
@@ -4687,13 +4699,13 @@
         <v>16089</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -4702,13 +4714,13 @@
         <v>26669</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4735,13 @@
         <v>14833</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H51" s="7">
         <v>33</v>
@@ -4738,13 +4750,13 @@
         <v>26004</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7">
         <v>50</v>
@@ -4753,13 +4765,13 @@
         <v>40837</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4786,13 @@
         <v>138514</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H52" s="7">
         <v>179</v>
@@ -4789,13 +4801,13 @@
         <v>126315</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M52" s="7">
         <v>289</v>
@@ -4804,13 +4816,13 @@
         <v>264829</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4837,13 @@
         <v>79495</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H53" s="7">
         <v>122</v>
@@ -4840,13 +4852,13 @@
         <v>111071</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M53" s="7">
         <v>197</v>
@@ -4855,13 +4867,13 @@
         <v>190565</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4888,13 @@
         <v>36645</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H54" s="7">
         <v>112</v>
@@ -4891,13 +4903,13 @@
         <v>67206</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M54" s="7">
         <v>152</v>
@@ -4906,13 +4918,13 @@
         <v>103851</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4939,13 @@
         <v>28291</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H55" s="7">
         <v>57</v>
@@ -4942,13 +4954,13 @@
         <v>37154</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M55" s="7">
         <v>84</v>
@@ -4957,13 +4969,13 @@
         <v>65446</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4990,13 @@
         <v>5095</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H56" s="7">
         <v>25</v>
@@ -4993,13 +5005,13 @@
         <v>15745</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M56" s="7">
         <v>31</v>
@@ -5008,13 +5020,13 @@
         <v>20841</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5041,13 @@
         <v>3247</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -5050,7 +5062,7 @@
         <v>301</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="M57" s="7">
         <v>5</v>
@@ -5059,13 +5071,13 @@
         <v>4692</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,7 +5098,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -5095,13 +5107,13 @@
         <v>848</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -5110,13 +5122,13 @@
         <v>848</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5143,13 @@
         <v>316700</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H59" s="7">
         <v>560</v>
@@ -5146,13 +5158,13 @@
         <v>406093</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M59" s="7">
         <v>844</v>
@@ -5161,18 +5173,18 @@
         <v>722792</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B60" s="5">
         <v>15</v>
@@ -5190,7 +5202,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5205,7 +5217,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -5220,7 +5232,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5256,7 +5268,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5271,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,7 +5304,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5307,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5322,7 +5334,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -5358,7 +5370,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -5373,7 +5385,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5406,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5409,7 +5421,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -5424,7 +5436,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,10 +5451,10 @@
         <v>5746</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>311</v>
@@ -5457,7 +5469,7 @@
         <v>312</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>305</v>
+        <v>85</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>313</v>
@@ -5472,7 +5484,7 @@
         <v>314</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>315</v>
@@ -5508,7 +5520,7 @@
         <v>319</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>320</v>
@@ -5712,7 +5724,7 @@
         <v>353</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>354</v>
@@ -5727,10 +5739,10 @@
         <v>355</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5757,13 @@
         <v>759</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5760,13 +5772,13 @@
         <v>159</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M71" s="7">
         <v>2</v>
@@ -5778,10 +5790,10 @@
         <v>14</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5817,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5832,7 +5844,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5859,13 @@
         <v>196748</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H73" s="7">
         <v>487</v>
@@ -5862,13 +5874,13 @@
         <v>229387</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M73" s="7">
         <v>766</v>
@@ -5877,13 +5889,13 @@
         <v>426134</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5912,13 @@
         <v>1557</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>176</v>
+        <v>359</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5921,7 +5933,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5930,13 +5942,13 @@
         <v>1557</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>360</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -5972,7 +5984,7 @@
         <v>11</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -5987,7 +5999,7 @@
         <v>11</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -6023,7 +6035,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -6038,7 +6050,7 @@
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6071,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -6074,7 +6086,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -6089,7 +6101,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6116,13 @@
         <v>1970</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>361</v>
+        <v>169</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -6125,7 +6137,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M78" s="7">
         <v>1</v>
@@ -6140,7 +6152,7 @@
         <v>10</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>363</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6167,13 @@
         <v>7592</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H79" s="7">
         <v>8</v>
@@ -6170,13 +6182,13 @@
         <v>6106</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M79" s="7">
         <v>17</v>
@@ -6185,13 +6197,13 @@
         <v>13698</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6218,13 @@
         <v>106296</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H80" s="7">
         <v>126</v>
@@ -6221,13 +6233,13 @@
         <v>103613</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M80" s="7">
         <v>245</v>
@@ -6236,13 +6248,13 @@
         <v>209910</v>
       </c>
       <c r="O80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q80" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6269,13 @@
         <v>97230</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H81" s="7">
         <v>152</v>
@@ -6272,13 +6284,13 @@
         <v>80378</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M81" s="7">
         <v>294</v>
@@ -6287,13 +6299,13 @@
         <v>177608</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6320,13 @@
         <v>40575</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H82" s="7">
         <v>97</v>
@@ -6323,13 +6335,13 @@
         <v>47006</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M82" s="7">
         <v>159</v>
@@ -6338,13 +6350,13 @@
         <v>87582</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6371,13 @@
         <v>12229</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H83" s="7">
         <v>56</v>
@@ -6374,13 +6386,13 @@
         <v>27087</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>399</v>
+        <v>257</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M83" s="7">
         <v>78</v>
@@ -6389,13 +6401,13 @@
         <v>39316</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>219</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6422,13 @@
         <v>7843</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H84" s="7">
         <v>16</v>
@@ -6425,13 +6437,13 @@
         <v>8732</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M84" s="7">
         <v>27</v>
@@ -6440,13 +6452,13 @@
         <v>16574</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>408</v>
+        <v>227</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6473,13 @@
         <v>1420</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="H85" s="7">
         <v>3</v>
@@ -6476,13 +6488,13 @@
         <v>1823</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>412</v>
+        <v>71</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>232</v>
+        <v>407</v>
       </c>
       <c r="M85" s="7">
         <v>6</v>
@@ -6491,13 +6503,13 @@
         <v>3244</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6524,13 @@
         <v>511</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6527,13 +6539,13 @@
         <v>500</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="M86" s="7">
         <v>2</v>
@@ -6542,13 +6554,13 @@
         <v>1011</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6575,13 @@
         <v>277223</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H87" s="7">
         <v>459</v>
@@ -6578,13 +6590,13 @@
         <v>275246</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M87" s="7">
         <v>830</v>
@@ -6593,18 +6605,18 @@
         <v>552469</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B88" s="5">
         <v>15</v>
@@ -6622,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -6637,7 +6649,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -6652,7 +6664,7 @@
         <v>11</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6679,13 @@
         <v>1099</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -6688,7 +6700,7 @@
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -6703,7 +6715,7 @@
         <v>10</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6730,13 @@
         <v>6177</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H90" s="7">
         <v>3</v>
@@ -6733,13 +6745,13 @@
         <v>1972</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="M90" s="7">
         <v>8</v>
@@ -6748,13 +6760,13 @@
         <v>8149</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6781,13 @@
         <v>1551</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>419</v>
+        <v>172</v>
       </c>
       <c r="H91" s="7">
         <v>2</v>
@@ -6784,13 +6796,13 @@
         <v>2336</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M91" s="7">
         <v>3</v>
@@ -6799,13 +6811,13 @@
         <v>3887</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>238</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6832,13 @@
         <v>12922</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H92" s="7">
         <v>28</v>
@@ -6835,13 +6847,13 @@
         <v>23331</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
       <c r="M92" s="7">
         <v>43</v>
@@ -6850,13 +6862,13 @@
         <v>36254</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="P92" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q92" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6883,13 @@
         <v>40067</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>429</v>
+        <v>313</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>430</v>
+        <v>177</v>
       </c>
       <c r="H93" s="7">
         <v>74</v>
@@ -6886,13 +6898,13 @@
         <v>67673</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M93" s="7">
         <v>107</v>
@@ -6901,13 +6913,13 @@
         <v>107740</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6934,13 @@
         <v>210557</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H94" s="7">
         <v>288</v>
@@ -6937,13 +6949,13 @@
         <v>206530</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M94" s="7">
         <v>470</v>
@@ -6952,13 +6964,13 @@
         <v>417087</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6985,13 @@
         <v>200012</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H95" s="7">
         <v>259</v>
@@ -6988,13 +7000,13 @@
         <v>182597</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M95" s="7">
         <v>455</v>
@@ -7003,13 +7015,13 @@
         <v>382609</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +7036,13 @@
         <v>102137</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H96" s="7">
         <v>172</v>
@@ -7039,13 +7051,13 @@
         <v>229215</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M96" s="7">
         <v>281</v>
@@ -7054,13 +7066,13 @@
         <v>331352</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7087,13 @@
         <v>34509</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H97" s="7">
         <v>87</v>
@@ -7090,13 +7102,13 @@
         <v>61702</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M97" s="7">
         <v>126</v>
@@ -7105,13 +7117,13 @@
         <v>96211</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>472</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7138,13 @@
         <v>12070</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H98" s="7">
         <v>25</v>
@@ -7141,13 +7153,13 @@
         <v>17082</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M98" s="7">
         <v>36</v>
@@ -7156,13 +7168,13 @@
         <v>29153</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,7 +7195,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="H99" s="7">
         <v>5</v>
@@ -7192,13 +7204,13 @@
         <v>2912</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M99" s="7">
         <v>5</v>
@@ -7207,13 +7219,13 @@
         <v>2912</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>480</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,10 +7243,10 @@
         <v>12</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H100" s="7">
         <v>2</v>
@@ -7249,7 +7261,7 @@
         <v>10</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="M100" s="7">
         <v>5</v>
@@ -7258,13 +7270,13 @@
         <v>4385</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>301</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>169</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7291,13 @@
         <v>624705</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H101" s="7">
         <v>945</v>
@@ -7294,13 +7306,13 @@
         <v>796134</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M101" s="7">
         <v>1540</v>
@@ -7309,18 +7321,18 @@
         <v>1420838</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B102" s="5">
         <v>15</v>
@@ -7338,7 +7350,7 @@
         <v>11</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
@@ -7353,7 +7365,7 @@
         <v>11</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M102" s="7">
         <v>0</v>
@@ -7368,7 +7380,7 @@
         <v>11</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,7 +7401,7 @@
         <v>11</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H103" s="7">
         <v>0</v>
@@ -7404,7 +7416,7 @@
         <v>11</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M103" s="7">
         <v>0</v>
@@ -7419,7 +7431,7 @@
         <v>11</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7446,13 @@
         <v>1204</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>172</v>
+        <v>479</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -7449,13 +7461,13 @@
         <v>2243</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="M104" s="7">
         <v>2</v>
@@ -7464,13 +7476,13 @@
         <v>3448</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,7 +7503,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H105" s="7">
         <v>3</v>
@@ -7500,13 +7512,13 @@
         <v>3548</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M105" s="7">
         <v>3</v>
@@ -7515,13 +7527,13 @@
         <v>3548</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7548,13 @@
         <v>61167</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H106" s="7">
         <v>7</v>
@@ -7551,13 +7563,13 @@
         <v>8514</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M106" s="7">
         <v>13</v>
@@ -7566,13 +7578,13 @@
         <v>69681</v>
       </c>
       <c r="O106" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P106" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q106" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P106" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q106" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,7 +7599,7 @@
         <v>103565</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>187</v>
+        <v>487</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>488</v>
@@ -7656,10 +7668,10 @@
         <v>499</v>
       </c>
       <c r="K108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L108" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M108" s="7">
         <v>815</v>
@@ -7668,13 +7680,13 @@
         <v>786461</v>
       </c>
       <c r="O108" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P108" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P108" s="7" t="s">
+      <c r="Q108" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q108" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,7 +7701,7 @@
         <v>215152</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>203</v>
+        <v>504</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>505</v>
@@ -7722,10 +7734,10 @@
         <v>510</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>266</v>
+        <v>511</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7752,13 @@
         <v>61782</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H110" s="7">
         <v>114</v>
@@ -7755,10 +7767,10 @@
         <v>78779</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>517</v>
@@ -7773,10 +7785,10 @@
         <v>518</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>186</v>
+        <v>519</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>519</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,10 +7803,10 @@
         <v>7478</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>520</v>
@@ -7806,13 +7818,13 @@
         <v>11896</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>521</v>
+        <v>413</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="M111" s="7">
         <v>25</v>
@@ -7821,13 +7833,13 @@
         <v>19374</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>523</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,7 +7860,7 @@
         <v>11</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H112" s="7">
         <v>5</v>
@@ -7857,13 +7869,13 @@
         <v>4565</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M112" s="7">
         <v>5</v>
@@ -7872,13 +7884,13 @@
         <v>4565</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>302</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,7 +7911,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H113" s="7">
         <v>0</v>
@@ -7914,7 +7926,7 @@
         <v>11</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M113" s="7">
         <v>2</v>
@@ -7923,13 +7935,13 @@
         <v>1851</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>351</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,7 +7962,7 @@
         <v>11</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H114" s="7">
         <v>0</v>
@@ -7965,7 +7977,7 @@
         <v>11</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M114" s="7">
         <v>0</v>
@@ -7980,7 +7992,7 @@
         <v>11</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8007,13 @@
         <v>859428</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H115" s="7">
         <v>1059</v>
@@ -8010,13 +8022,13 @@
         <v>864447</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M115" s="7">
         <v>1821</v>
@@ -8025,13 +8037,13 @@
         <v>1723875</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8060,13 @@
         <v>1557</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H116" s="7">
         <v>0</v>
@@ -8069,7 +8081,7 @@
         <v>11</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="M116" s="7">
         <v>1</v>
@@ -8078,13 +8090,13 @@
         <v>1557</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="P116" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8111,13 @@
         <v>1099</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H117" s="7">
         <v>2</v>
@@ -8114,13 +8126,13 @@
         <v>2061</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>243</v>
+        <v>530</v>
       </c>
       <c r="M117" s="7">
         <v>3</v>
@@ -8129,13 +8141,13 @@
         <v>3160</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P117" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q117" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8162,13 @@
         <v>7381</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="H118" s="7">
         <v>13</v>
@@ -8165,13 +8177,13 @@
         <v>10938</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>531</v>
+        <v>98</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M118" s="7">
         <v>19</v>
@@ -8180,13 +8192,13 @@
         <v>18319</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8213,13 @@
         <v>2982</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H119" s="7">
         <v>7</v>
@@ -8216,13 +8228,13 @@
         <v>7000</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>243</v>
+        <v>530</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="M119" s="7">
         <v>10</v>
@@ -8231,13 +8243,13 @@
         <v>9982</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="P119" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8264,13 @@
         <v>120786</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H120" s="7">
         <v>90</v>
@@ -8267,13 +8279,13 @@
         <v>74517</v>
       </c>
       <c r="J120" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L120" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M120" s="7">
         <v>148</v>
@@ -8282,13 +8294,13 @@
         <v>195303</v>
       </c>
       <c r="O120" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P120" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P120" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="Q120" s="7" t="s">
-        <v>539</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8315,13 @@
         <v>293113</v>
       </c>
       <c r="E121" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H121" s="7">
         <v>350</v>
@@ -8318,13 +8330,13 @@
         <v>310771</v>
       </c>
       <c r="J121" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K121" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L121" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="M121" s="7">
         <v>582</v>
@@ -8333,13 +8345,13 @@
         <v>603884</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P121" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q121" s="7" t="s">
-        <v>534</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8366,13 @@
         <v>1263993</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H122" s="7">
         <v>1642</v>
@@ -8369,13 +8381,13 @@
         <v>1240923</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M122" s="7">
         <v>2823</v>
@@ -8384,13 +8396,13 @@
         <v>2504916</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P122" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q122" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8417,7 @@
         <v>959596</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>555</v>
@@ -8423,10 +8435,10 @@
         <v>557</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>318</v>
+        <v>558</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M123" s="7">
         <v>2747</v>
@@ -8435,13 +8447,13 @@
         <v>2046060</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P123" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q123" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8468,13 @@
         <v>441432</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>111</v>
+        <v>563</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H124" s="7">
         <v>931</v>
@@ -8471,13 +8483,13 @@
         <v>653545</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M124" s="7">
         <v>1446</v>
@@ -8486,13 +8498,13 @@
         <v>1094978</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P124" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q124" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8519,13 @@
         <v>134773</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H125" s="7">
         <v>358</v>
@@ -8522,13 +8534,13 @@
         <v>215481</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>298</v>
+        <v>574</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M125" s="7">
         <v>518</v>
@@ -8537,13 +8549,13 @@
         <v>350254</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P125" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q125" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,13 +8570,13 @@
         <v>38005</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>521</v>
+        <v>234</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H126" s="7">
         <v>104</v>
@@ -8573,13 +8585,13 @@
         <v>66066</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M126" s="7">
         <v>146</v>
@@ -8588,13 +8600,13 @@
         <v>104071</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="P126" s="7" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="Q126" s="7" t="s">
-        <v>581</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8621,13 @@
         <v>8885</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="H127" s="7">
         <v>22</v>
@@ -8624,13 +8636,13 @@
         <v>11702</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="M127" s="7">
         <v>32</v>
@@ -8639,13 +8651,13 @@
         <v>20587</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P127" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q127" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,13 +8672,13 @@
         <v>5018</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>528</v>
+        <v>241</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>13</v>
+        <v>474</v>
       </c>
       <c r="H128" s="7">
         <v>7</v>
@@ -8675,13 +8687,13 @@
         <v>3375</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>236</v>
+        <v>530</v>
       </c>
       <c r="M128" s="7">
         <v>12</v>
@@ -8690,10 +8702,10 @@
         <v>8393</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P128" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q128" s="7" t="s">
         <v>14</v>
@@ -8711,13 +8723,13 @@
         <v>3278620</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H129" s="7">
         <v>5188</v>
@@ -8726,13 +8738,13 @@
         <v>3682842</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M129" s="7">
         <v>8487</v>
@@ -8741,18 +8753,18 @@
         <v>6961463</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q129" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,36</t>
+          <t>7,09; 7,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,09</t>
+          <t>6,88; 7,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,18</t>
+          <t>7,03; 7,25</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,78</t>
+          <t>7,5; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 7,72</t>
+          <t>7,54; 7,73</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,43</t>
+          <t>7,17; 7,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,34</t>
+          <t>7,12; 7,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,35</t>
+          <t>7,19; 7,36</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,16</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,41</t>
+          <t>7,06; 7,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,27</t>
+          <t>6,98; 7,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,3</t>
+          <t>7,06; 7,29</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>6,82</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,06</t>
+          <t>6,82; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 6,83</t>
+          <t>6,64; 6,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 6,91</t>
+          <t>6,74; 6,9</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>7,05</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,32</t>
+          <t>7,04; 7,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,14</t>
+          <t>6,95; 7,15</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,04</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,37</t>
+          <t>7,11; 7,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 7,23</t>
+          <t>6,39; 7,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,24</t>
+          <t>6,64; 7,25</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,97</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,28</t>
+          <t>7,67; 9,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,64</t>
+          <t>7,48; 7,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,61; 7,96</t>
+          <t>7,6; 8,81</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,59</t>
+          <t>7,37; 8,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,28</t>
+          <t>6,94; 7,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,38</t>
+          <t>7,23; 7,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,44</t>
+          <t>7,09; 7,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,1</t>
+          <t>6,86; 7,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,25</t>
+          <t>7,03; 7,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,8</t>
+          <t>7,49; 7,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,44</t>
+          <t>7,18; 7,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,36</t>
+          <t>7,18; 7,35</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,43</t>
+          <t>7,08; 7,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,23</t>
+          <t>6,98; 7,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,29</t>
+          <t>7,05; 7,26</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,05</t>
+          <t>6,81; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -789,14 +789,14 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 6,9</t>
+          <t>6,75; 6,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,34</t>
+          <t>7,03; 7,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,03</t>
+          <t>6,8; 7,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,15</t>
+          <t>6,96; 7,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,37</t>
+          <t>7,1; 7,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 7,22</t>
+          <t>6,45; 7,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,25</t>
+          <t>6,67; 7,23</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,67; 9,18</t>
+          <t>7,67; 9,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,61</t>
+          <t>7,49; 7,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,6; 8,81</t>
+          <t>7,61; 8,76</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,12</t>
+          <t>7,37; 8,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,26</t>
+          <t>6,96; 7,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,68</t>
+          <t>7,26; 7,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y los fines de semana</t>
+          <t>Número medio de horas que duerme habitualmente al día durante los fines de semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
